--- a/var_info/indv_panel_var_info/LSVAW_W_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/LSVAW_W_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42DC294-F6A5-734A-A9FA-D2FF0185CAB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66018D0D-7F49-EA4E-8F04-0209A8957E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="158">
   <si>
     <t>ord</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>alc</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1363,11 +1366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5:O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1377,7 +1380,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1421,10 +1424,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1458,8 +1464,11 @@
       <c r="K2">
         <v>365</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1493,8 +1502,11 @@
       <c r="K3">
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1528,8 +1540,11 @@
       <c r="K4">
         <v>365</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1563,8 +1578,11 @@
       <c r="K5">
         <v>365</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1598,8 +1616,11 @@
       <c r="K6">
         <v>365</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1633,8 +1654,11 @@
       <c r="K7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1668,8 +1692,11 @@
       <c r="K8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1703,8 +1730,11 @@
       <c r="K9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1738,8 +1768,11 @@
       <c r="K10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1773,8 +1806,11 @@
       <c r="K11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1808,8 +1844,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1843,8 +1882,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1878,8 +1920,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -1913,8 +1958,11 @@
       <c r="K15">
         <v>365</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1948,8 +1996,11 @@
       <c r="K16">
         <v>365</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1983,8 +2034,11 @@
       <c r="K17">
         <v>365</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2018,8 +2072,11 @@
       <c r="K18">
         <v>365</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2053,8 +2110,11 @@
       <c r="K19">
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2088,8 +2148,11 @@
       <c r="K20">
         <v>365</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2123,8 +2186,11 @@
       <c r="K21">
         <v>365</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2158,8 +2224,11 @@
       <c r="K22">
         <v>365</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2193,8 +2262,11 @@
       <c r="K23">
         <v>365</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2228,8 +2300,11 @@
       <c r="K24">
         <v>365</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2263,8 +2338,11 @@
       <c r="K25">
         <v>365</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2298,8 +2376,11 @@
       <c r="K26">
         <v>365</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2333,8 +2414,11 @@
       <c r="K27">
         <v>365</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2368,8 +2452,11 @@
       <c r="K28">
         <v>365</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2403,8 +2490,11 @@
       <c r="K29">
         <v>365</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2438,8 +2528,11 @@
       <c r="K30">
         <v>365</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2473,8 +2566,11 @@
       <c r="K31">
         <v>365</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2508,8 +2604,11 @@
       <c r="K32">
         <v>365</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2543,8 +2642,11 @@
       <c r="K33">
         <v>365</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2578,8 +2680,11 @@
       <c r="K34">
         <v>365</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2613,8 +2718,11 @@
       <c r="K35">
         <v>365</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2648,8 +2756,11 @@
       <c r="K36">
         <v>365</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2683,8 +2794,11 @@
       <c r="K37">
         <v>365</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2718,8 +2832,11 @@
       <c r="K38">
         <v>365</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2753,8 +2870,11 @@
       <c r="K39">
         <v>365</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2788,8 +2908,11 @@
       <c r="K40">
         <v>365</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2823,8 +2946,11 @@
       <c r="K41">
         <v>365</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2858,8 +2984,11 @@
       <c r="K42">
         <v>365</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2893,8 +3022,11 @@
       <c r="K43">
         <v>365</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -2928,8 +3060,11 @@
       <c r="K44">
         <v>365</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2963,8 +3098,11 @@
       <c r="K45">
         <v>365</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2998,8 +3136,11 @@
       <c r="K46">
         <v>365</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3033,8 +3174,11 @@
       <c r="K47">
         <v>365</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -3068,8 +3212,11 @@
       <c r="K48">
         <v>365</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -3103,8 +3250,11 @@
       <c r="K49">
         <v>365</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -3138,8 +3288,11 @@
       <c r="K50">
         <v>365</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -3173,8 +3326,11 @@
       <c r="K51">
         <v>365</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -3208,8 +3364,11 @@
       <c r="K52">
         <v>365</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -3243,8 +3402,11 @@
       <c r="K53">
         <v>365</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3440,11 @@
       <c r="K54">
         <v>365</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -3313,8 +3478,11 @@
       <c r="K55">
         <v>365</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -3348,8 +3516,11 @@
       <c r="K56">
         <v>365</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3554,11 @@
       <c r="K57">
         <v>365</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -3418,8 +3592,11 @@
       <c r="K58">
         <v>365</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -3453,8 +3630,11 @@
       <c r="K59">
         <v>365</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3668,11 @@
       <c r="K60">
         <v>365</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -3523,8 +3706,11 @@
       <c r="K61">
         <v>365</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -3558,8 +3744,11 @@
       <c r="K62">
         <v>365</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3782,11 @@
       <c r="K63">
         <v>365</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -3628,8 +3820,11 @@
       <c r="K64">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -3663,8 +3858,11 @@
       <c r="K65">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -3698,8 +3896,11 @@
       <c r="K66">
         <v>365</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -3733,8 +3934,11 @@
       <c r="K67">
         <v>365</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -3765,8 +3969,11 @@
       <c r="J68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -3797,8 +4004,11 @@
       <c r="J69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -3829,8 +4039,11 @@
       <c r="J70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -3864,8 +4077,11 @@
       <c r="K71">
         <v>365</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -3899,8 +4115,11 @@
       <c r="K72">
         <v>365</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -3934,8 +4153,11 @@
       <c r="K73">
         <v>365</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -3969,8 +4191,11 @@
       <c r="K74">
         <v>365</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -4004,8 +4229,11 @@
       <c r="K75">
         <v>365</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -4039,8 +4267,11 @@
       <c r="K76">
         <v>365</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -4074,8 +4305,11 @@
       <c r="K77">
         <v>365</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -4109,8 +4343,11 @@
       <c r="K78">
         <v>365</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -4144,8 +4381,11 @@
       <c r="K79">
         <v>365</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -4179,8 +4419,11 @@
       <c r="K80">
         <v>365</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -4214,19 +4457,21 @@
       <c r="K81">
         <v>365</v>
       </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{9008F1C8-EE05-7D47-8B19-8628F8CC0D5C}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4235,7 +4480,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4279,10 +4524,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4298,11 +4546,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4318,11 +4566,11 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -4338,11 +4586,11 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4358,11 +4606,11 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -4378,38 +4626,38 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:4">
@@ -4617,10 +4865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4628,7 +4876,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4672,10 +4920,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4691,11 +4942,11 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4711,11 +4962,11 @@
       <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -4731,11 +4982,11 @@
       <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4751,11 +5002,11 @@
       <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -4771,7 +5022,7 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4782,10 +5033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4794,7 +5045,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4838,10 +5089,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4857,11 +5111,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4877,11 +5131,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -4897,11 +5151,11 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4917,11 +5171,11 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -4937,7 +5191,7 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4951,15 +5205,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5003,6 +5257,9 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5015,7 +5272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB5BF5D-AA0D-654F-AFA3-DCFAE5965CFD}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
